--- a/arieta/Arietta List.xlsx
+++ b/arieta/Arietta List.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>SONG OF BLOOD</t>
   </si>
@@ -345,78 +345,12 @@
   <si>
     <t>I Defy</t>
   </si>
-  <si>
-    <t>ARIETTAS OWNED</t>
-  </si>
-  <si>
-    <t>Vanja</t>
-  </si>
-  <si>
-    <t>Nettle</t>
-  </si>
-  <si>
-    <t>Beata</t>
-  </si>
-  <si>
-    <t>Shape Bone (I)</t>
-  </si>
-  <si>
-    <t>Cleanse (I)</t>
-  </si>
-  <si>
-    <t>Gift of Sensation (I)</t>
-  </si>
-  <si>
-    <t>Creeping Flesh (I)</t>
-  </si>
-  <si>
-    <t>Purify Anima (Ι)</t>
-  </si>
-  <si>
-    <t>Restore Flesh (I)</t>
-  </si>
-  <si>
-    <t>Rend Flesh (I)</t>
-  </si>
-  <si>
-    <t>Bone Growth (I)</t>
-  </si>
-  <si>
-    <t>Shatter the Horde (II)</t>
-  </si>
-  <si>
-    <t>Refine Self (II)</t>
-  </si>
-  <si>
-    <t>Enduring Bone (ΙI)</t>
-  </si>
-  <si>
-    <t>Open the echo eye (I)</t>
-  </si>
-  <si>
-    <t>Bone Wind (ΙΙ)</t>
-  </si>
-  <si>
-    <t>Stolen Moments (I)</t>
-  </si>
-  <si>
-    <t>Hollow Sight (I)</t>
-  </si>
-  <si>
-    <t>Transmute (I)</t>
-  </si>
-  <si>
-    <t>Dual Soul(Ι)</t>
-  </si>
-  <si>
-    <t>Shattered Reflections (II)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -454,14 +388,8 @@
       <color theme="1"/>
       <name val="Source Code Pro"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +426,6 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -511,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -590,22 +512,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1396,7 +1309,7 @@
         <v>52</v>
       </c>
       <c r="J13" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1533,14 +1446,14 @@
       <c r="G16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="20" t="b">
-        <v>0</v>
+      <c r="H16" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="20" t="b">
-        <v>0</v>
+      <c r="J16" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -1614,19 +1527,19 @@
         <v>71</v>
       </c>
       <c r="F18" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>72</v>
       </c>
       <c r="H18" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>73</v>
       </c>
       <c r="J18" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -1649,8 +1562,8 @@
       <c r="A19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="20" t="b">
-        <v>0</v>
+      <c r="B19" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>75</v>
@@ -1661,20 +1574,20 @@
       <c r="E19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="20" t="b">
-        <v>0</v>
+      <c r="F19" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="20" t="b">
-        <v>0</v>
+      <c r="H19" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="20" t="b">
-        <v>0</v>
+      <c r="J19" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -1709,20 +1622,20 @@
       <c r="E20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="20" t="b">
-        <v>0</v>
+      <c r="F20" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="20" t="b">
-        <v>0</v>
+      <c r="H20" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="20" t="b">
-        <v>0</v>
+      <c r="J20" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -1784,31 +1697,31 @@
         <v>85</v>
       </c>
       <c r="B22" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>88</v>
       </c>
       <c r="H22" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>89</v>
       </c>
       <c r="J22" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -1831,32 +1744,32 @@
       <c r="A23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="20" t="b">
-        <v>0</v>
+      <c r="B23" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="20" t="b">
-        <v>0</v>
+      <c r="D23" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="20" t="b">
-        <v>0</v>
+      <c r="F23" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="20" t="b">
-        <v>0</v>
+      <c r="H23" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="20" t="b">
-        <v>0</v>
+      <c r="J23" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -1879,32 +1792,32 @@
       <c r="A24" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="20" t="b">
-        <v>0</v>
+      <c r="B24" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="20" t="b">
-        <v>0</v>
+      <c r="D24" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="20" t="b">
-        <v>0</v>
+      <c r="F24" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="20" t="b">
-        <v>0</v>
+      <c r="H24" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="20" t="b">
-        <v>0</v>
+      <c r="J24" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -1966,31 +1879,31 @@
         <v>101</v>
       </c>
       <c r="B26" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D26" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>103</v>
       </c>
       <c r="F26" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>104</v>
       </c>
       <c r="H26" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>105</v>
       </c>
       <c r="J26" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -2013,32 +1926,32 @@
       <c r="A27" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="20" t="b">
-        <v>0</v>
+      <c r="B27" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="20" t="b">
-        <v>0</v>
+      <c r="D27" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="20" t="b">
-        <v>0</v>
+      <c r="F27" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="20" t="b">
-        <v>0</v>
+      <c r="H27" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="J27" s="20" t="b">
-        <v>0</v>
+      <c r="J27" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -2085,9 +1998,7 @@
       <c r="Z28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="26" t="s">
-        <v>111</v>
-      </c>
+      <c r="A29" s="26"/>
       <c r="B29" s="20"/>
       <c r="C29" s="18"/>
       <c r="D29" s="20"/>
@@ -2114,17 +2025,11 @@
       <c r="Z29" s="18"/>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>112</v>
-      </c>
+      <c r="A30" s="27"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="27" t="s">
-        <v>113</v>
-      </c>
+      <c r="C30" s="27"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="27" t="s">
-        <v>114</v>
-      </c>
+      <c r="E30" s="27"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -2147,24 +2052,9 @@
       <c r="Z30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="2"/>
+      <c r="G31" s="28"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
@@ -2181,20 +2071,9 @@
       <c r="Z31" s="18"/>
     </row>
     <row r="32">
-      <c r="A32" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="9"/>
+      <c r="G32" s="29"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
@@ -2211,21 +2090,10 @@
       <c r="Z32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="2"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
@@ -2242,23 +2110,10 @@
       <c r="Z33" s="18"/>
     </row>
     <row r="34">
-      <c r="A34" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="9"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
@@ -2275,21 +2130,10 @@
       <c r="Z34" s="18"/>
     </row>
     <row r="35">
-      <c r="A35" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
@@ -2306,21 +2150,10 @@
       <c r="Z35" s="18"/>
     </row>
     <row r="36">
-      <c r="A36" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="19"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -2337,22 +2170,10 @@
       <c r="Z36" s="18"/>
     </row>
     <row r="37">
-      <c r="A37" s="32" t="s">
-        <v>128</v>
-      </c>
+      <c r="A37" s="27"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="19"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
@@ -2369,21 +2190,10 @@
       <c r="Z37" s="18"/>
     </row>
     <row r="38">
-      <c r="A38" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="19"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
@@ -2400,21 +2210,10 @@
       <c r="Z38" s="18"/>
     </row>
     <row r="39">
-      <c r="A39" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
@@ -2431,21 +2230,10 @@
       <c r="Z39" s="18"/>
     </row>
     <row r="40">
-      <c r="A40" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
@@ -2462,17 +2250,10 @@
       <c r="Z40" s="18"/>
     </row>
     <row r="41">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="19"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="19"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
@@ -2489,18 +2270,10 @@
       <c r="Z41" s="18"/>
     </row>
     <row r="42">
-      <c r="A42" s="18"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="20"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="19"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -2517,18 +2290,10 @@
       <c r="Z42" s="18"/>
     </row>
     <row r="43">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="19"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
@@ -2545,18 +2310,10 @@
       <c r="Z43" s="18"/>
     </row>
     <row r="44">
-      <c r="A44" s="18"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -2573,18 +2330,10 @@
       <c r="Z44" s="18"/>
     </row>
     <row r="45">
-      <c r="A45" s="18"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
@@ -2601,18 +2350,10 @@
       <c r="Z45" s="18"/>
     </row>
     <row r="46">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="19"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -2629,18 +2370,10 @@
       <c r="Z46" s="18"/>
     </row>
     <row r="47">
-      <c r="A47" s="18"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="20"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="19"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
@@ -2657,18 +2390,10 @@
       <c r="Z47" s="18"/>
     </row>
     <row r="48">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="19"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
@@ -2685,18 +2410,10 @@
       <c r="Z48" s="18"/>
     </row>
     <row r="49">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
@@ -2713,18 +2430,10 @@
       <c r="Z49" s="18"/>
     </row>
     <row r="50">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
@@ -2741,18 +2450,10 @@
       <c r="Z50" s="18"/>
     </row>
     <row r="51">
-      <c r="A51" s="18"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="20"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="18"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
@@ -2769,18 +2470,10 @@
       <c r="Z51" s="18"/>
     </row>
     <row r="52">
-      <c r="A52" s="18"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
       <c r="O52" s="18"/>
@@ -2797,18 +2490,10 @@
       <c r="Z52" s="18"/>
     </row>
     <row r="53">
-      <c r="A53" s="18"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="19"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
@@ -2825,18 +2510,10 @@
       <c r="Z53" s="18"/>
     </row>
     <row r="54">
-      <c r="A54" s="18"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="16"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
@@ -2853,18 +2530,10 @@
       <c r="Z54" s="18"/>
     </row>
     <row r="55">
-      <c r="A55" s="18"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="20"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="18"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="20"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
@@ -2881,18 +2550,10 @@
       <c r="Z55" s="18"/>
     </row>
     <row r="56">
-      <c r="A56" s="18"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="20"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
@@ -2909,18 +2570,10 @@
       <c r="Z56" s="18"/>
     </row>
     <row r="57">
-      <c r="A57" s="18"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="20"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="18"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="20"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
@@ -2937,18 +2590,7 @@
       <c r="Z57" s="18"/>
     </row>
     <row r="58">
-      <c r="A58" s="18"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
+      <c r="H58" s="16"/>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
@@ -2965,18 +2607,10 @@
       <c r="Z58" s="18"/>
     </row>
     <row r="59">
-      <c r="A59" s="18"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="18"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="2"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="20"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
@@ -2993,17 +2627,9 @@
       <c r="Z59" s="18"/>
     </row>
     <row r="60">
-      <c r="A60" s="18"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="18"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="9"/>
+      <c r="G60" s="29"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
@@ -3021,17 +2647,10 @@
       <c r="Z60" s="18"/>
     </row>
     <row r="61">
-      <c r="A61" s="18"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="18"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="2"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
@@ -3049,16 +2668,10 @@
       <c r="Z61" s="18"/>
     </row>
     <row r="62">
-      <c r="A62" s="18"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="20"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="19"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="9"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -3077,16 +2690,10 @@
       <c r="Z62" s="18"/>
     </row>
     <row r="63">
-      <c r="A63" s="18"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="20"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="16"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -3105,16 +2712,10 @@
       <c r="Z63" s="18"/>
     </row>
     <row r="64">
-      <c r="A64" s="18"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="20"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="19"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
@@ -3133,16 +2734,10 @@
       <c r="Z64" s="18"/>
     </row>
     <row r="65">
-      <c r="A65" s="18"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="20"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="20"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="19"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
@@ -3161,16 +2756,10 @@
       <c r="Z65" s="18"/>
     </row>
     <row r="66">
-      <c r="A66" s="18"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="20"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="19"/>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
@@ -3189,16 +2778,9 @@
       <c r="Z66" s="18"/>
     </row>
     <row r="67">
-      <c r="A67" s="18"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="18"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
       <c r="H67" s="20"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="20"/>
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
@@ -3217,16 +2799,10 @@
       <c r="Z67" s="18"/>
     </row>
     <row r="68">
-      <c r="A68" s="18"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="20"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="16"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
@@ -3245,16 +2821,10 @@
       <c r="Z68" s="18"/>
     </row>
     <row r="69">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="20"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="19"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="19"/>
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
@@ -3273,16 +2843,10 @@
       <c r="Z69" s="18"/>
     </row>
     <row r="70">
-      <c r="A70" s="18"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="20"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="20"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="19"/>
       <c r="K70" s="18"/>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
@@ -3301,16 +2865,10 @@
       <c r="Z70" s="18"/>
     </row>
     <row r="71">
-      <c r="A71" s="18"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="20"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="16"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="19"/>
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
@@ -3329,16 +2887,10 @@
       <c r="Z71" s="18"/>
     </row>
     <row r="72">
-      <c r="A72" s="18"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="18"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="19"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="20"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="20"/>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
@@ -3357,16 +2909,10 @@
       <c r="Z72" s="18"/>
     </row>
     <row r="73">
-      <c r="A73" s="18"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="20"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="19"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="16"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -3385,16 +2931,10 @@
       <c r="Z73" s="18"/>
     </row>
     <row r="74">
-      <c r="A74" s="18"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="20"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="19"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -3413,16 +2953,10 @@
       <c r="Z74" s="18"/>
     </row>
     <row r="75">
-      <c r="A75" s="18"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="20"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="20"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="19"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -3441,16 +2975,10 @@
       <c r="Z75" s="18"/>
     </row>
     <row r="76">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="20"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="19"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -3469,16 +2997,10 @@
       <c r="Z76" s="18"/>
     </row>
     <row r="77">
-      <c r="A77" s="18"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="G77" s="15"/>
       <c r="H77" s="20"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="20"/>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
@@ -3497,16 +3019,10 @@
       <c r="Z77" s="18"/>
     </row>
     <row r="78">
-      <c r="A78" s="18"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="20"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="16"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
@@ -3525,16 +3041,10 @@
       <c r="Z78" s="18"/>
     </row>
     <row r="79">
-      <c r="A79" s="18"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="20"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="20"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="19"/>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
@@ -3553,16 +3063,10 @@
       <c r="Z79" s="18"/>
     </row>
     <row r="80">
-      <c r="A80" s="18"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="20"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="19"/>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
@@ -3581,16 +3085,10 @@
       <c r="Z80" s="18"/>
     </row>
     <row r="81">
-      <c r="A81" s="18"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="20"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="19"/>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
@@ -3609,16 +3107,10 @@
       <c r="Z81" s="18"/>
     </row>
     <row r="82">
-      <c r="A82" s="18"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="20"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="20"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="16"/>
       <c r="K82" s="18"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
@@ -3637,16 +3129,10 @@
       <c r="Z82" s="18"/>
     </row>
     <row r="83">
-      <c r="A83" s="18"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="20"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="20"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="19"/>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
@@ -3665,16 +3151,10 @@
       <c r="Z83" s="18"/>
     </row>
     <row r="84">
-      <c r="A84" s="18"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="20"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="19"/>
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
@@ -3693,16 +3173,10 @@
       <c r="Z84" s="18"/>
     </row>
     <row r="85">
-      <c r="A85" s="18"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="20"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="18"/>
+      <c r="G85" s="15"/>
       <c r="H85" s="20"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="20"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
@@ -3721,16 +3195,7 @@
       <c r="Z85" s="18"/>
     </row>
     <row r="86">
-      <c r="A86" s="18"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="20"/>
+      <c r="H86" s="16"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
@@ -3749,16 +3214,9 @@
       <c r="Z86" s="18"/>
     </row>
     <row r="87">
-      <c r="A87" s="18"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="20"/>
+      <c r="A87" s="28"/>
       <c r="G87" s="18"/>
       <c r="H87" s="20"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="20"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
@@ -3777,14 +3235,7 @@
       <c r="Z87" s="18"/>
     </row>
     <row r="88">
-      <c r="A88" s="18"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="20"/>
+      <c r="A88" s="29"/>
       <c r="I88" s="18"/>
       <c r="J88" s="20"/>
       <c r="K88" s="18"/>
@@ -3805,13 +3256,12 @@
       <c r="Z88" s="18"/>
     </row>
     <row r="89">
-      <c r="A89" s="18"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="20"/>
       <c r="C89" s="18"/>
       <c r="D89" s="20"/>
       <c r="E89" s="18"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="18"/>
       <c r="H89" s="20"/>
       <c r="I89" s="18"/>
       <c r="J89" s="20"/>
@@ -3833,7 +3283,7 @@
       <c r="Z89" s="18"/>
     </row>
     <row r="90">
-      <c r="A90" s="18"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="20"/>
       <c r="C90" s="18"/>
       <c r="D90" s="20"/>
@@ -3861,7 +3311,7 @@
       <c r="Z90" s="18"/>
     </row>
     <row r="91">
-      <c r="A91" s="18"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="20"/>
       <c r="C91" s="18"/>
       <c r="D91" s="20"/>
@@ -3889,8 +3339,8 @@
       <c r="Z91" s="18"/>
     </row>
     <row r="92">
-      <c r="A92" s="18"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="18"/>
       <c r="D92" s="20"/>
       <c r="E92" s="18"/>
@@ -3917,7 +3367,7 @@
       <c r="Z92" s="18"/>
     </row>
     <row r="93">
-      <c r="A93" s="18"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="20"/>
       <c r="C93" s="18"/>
       <c r="D93" s="20"/>
@@ -3945,7 +3395,7 @@
       <c r="Z93" s="18"/>
     </row>
     <row r="94">
-      <c r="A94" s="18"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="20"/>
       <c r="C94" s="18"/>
       <c r="D94" s="20"/>
@@ -3973,7 +3423,7 @@
       <c r="Z94" s="18"/>
     </row>
     <row r="95">
-      <c r="A95" s="18"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="20"/>
       <c r="C95" s="18"/>
       <c r="D95" s="20"/>
@@ -4001,7 +3451,7 @@
       <c r="Z95" s="18"/>
     </row>
     <row r="96">
-      <c r="A96" s="18"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="20"/>
       <c r="C96" s="18"/>
       <c r="D96" s="20"/>
@@ -4029,7 +3479,7 @@
       <c r="Z96" s="18"/>
     </row>
     <row r="97">
-      <c r="A97" s="18"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="20"/>
       <c r="C97" s="18"/>
       <c r="D97" s="20"/>
@@ -4057,7 +3507,7 @@
       <c r="Z97" s="18"/>
     </row>
     <row r="98">
-      <c r="A98" s="18"/>
+      <c r="A98" s="27"/>
       <c r="B98" s="20"/>
       <c r="C98" s="18"/>
       <c r="D98" s="20"/>
@@ -4085,8 +3535,8 @@
       <c r="Z98" s="18"/>
     </row>
     <row r="99">
-      <c r="A99" s="18"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="18"/>
       <c r="D99" s="20"/>
       <c r="E99" s="18"/>
@@ -4113,7 +3563,7 @@
       <c r="Z99" s="18"/>
     </row>
     <row r="100">
-      <c r="A100" s="18"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="20"/>
       <c r="C100" s="18"/>
       <c r="D100" s="20"/>
@@ -4141,7 +3591,7 @@
       <c r="Z100" s="18"/>
     </row>
     <row r="101">
-      <c r="A101" s="18"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="20"/>
       <c r="C101" s="18"/>
       <c r="D101" s="20"/>
@@ -4169,8 +3619,8 @@
       <c r="Z101" s="18"/>
     </row>
     <row r="102">
-      <c r="A102" s="18"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="18"/>
       <c r="D102" s="20"/>
       <c r="E102" s="18"/>
@@ -4197,7 +3647,7 @@
       <c r="Z102" s="18"/>
     </row>
     <row r="103">
-      <c r="A103" s="18"/>
+      <c r="A103" s="27"/>
       <c r="B103" s="20"/>
       <c r="C103" s="18"/>
       <c r="D103" s="20"/>
@@ -4225,8 +3675,8 @@
       <c r="Z103" s="18"/>
     </row>
     <row r="104">
-      <c r="A104" s="18"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="18"/>
       <c r="D104" s="20"/>
       <c r="E104" s="18"/>
@@ -4253,8 +3703,8 @@
       <c r="Z104" s="18"/>
     </row>
     <row r="105">
-      <c r="A105" s="18"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="18"/>
       <c r="D105" s="20"/>
       <c r="E105" s="18"/>
@@ -4281,8 +3731,8 @@
       <c r="Z105" s="18"/>
     </row>
     <row r="106">
-      <c r="A106" s="18"/>
-      <c r="B106" s="20"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="18"/>
       <c r="D106" s="20"/>
       <c r="E106" s="18"/>
@@ -4309,7 +3759,7 @@
       <c r="Z106" s="18"/>
     </row>
     <row r="107">
-      <c r="A107" s="18"/>
+      <c r="A107" s="27"/>
       <c r="B107" s="20"/>
       <c r="C107" s="18"/>
       <c r="D107" s="20"/>
@@ -4337,8 +3787,8 @@
       <c r="Z107" s="18"/>
     </row>
     <row r="108">
-      <c r="A108" s="18"/>
-      <c r="B108" s="20"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="18"/>
       <c r="D108" s="20"/>
       <c r="E108" s="18"/>
@@ -4365,8 +3815,8 @@
       <c r="Z108" s="18"/>
     </row>
     <row r="109">
-      <c r="A109" s="18"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="18"/>
       <c r="D109" s="20"/>
       <c r="E109" s="18"/>
@@ -4393,8 +3843,8 @@
       <c r="Z109" s="18"/>
     </row>
     <row r="110">
-      <c r="A110" s="18"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="18"/>
       <c r="D110" s="20"/>
       <c r="E110" s="18"/>
@@ -4421,8 +3871,8 @@
       <c r="Z110" s="18"/>
     </row>
     <row r="111">
-      <c r="A111" s="18"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="27"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="18"/>
       <c r="D111" s="20"/>
       <c r="E111" s="18"/>
@@ -4449,8 +3899,8 @@
       <c r="Z111" s="18"/>
     </row>
     <row r="112">
-      <c r="A112" s="18"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="18"/>
       <c r="D112" s="20"/>
       <c r="E112" s="18"/>
@@ -4477,8 +3927,8 @@
       <c r="Z112" s="18"/>
     </row>
     <row r="113">
-      <c r="A113" s="18"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="18"/>
       <c r="D113" s="20"/>
       <c r="E113" s="18"/>
@@ -4673,7 +4123,6 @@
       <c r="Z119" s="18"/>
     </row>
     <row r="120">
-      <c r="A120" s="18"/>
       <c r="B120" s="20"/>
       <c r="C120" s="18"/>
       <c r="D120" s="20"/>
@@ -4701,7 +4150,6 @@
       <c r="Z120" s="18"/>
     </row>
     <row r="121">
-      <c r="A121" s="18"/>
       <c r="B121" s="20"/>
       <c r="C121" s="18"/>
       <c r="D121" s="20"/>
